--- a/Base/Teams/Falcons/Distributions.xlsx
+++ b/Base/Teams/Falcons/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.8087020101783957, 1.0614363206923376, 0.6889375308899919, 2.3511626277326703)</t>
-  </si>
-  <si>
-    <t>NIG(1.7019566913891584, 1.291616659995321, 3.3072262136373176, 6.039263440964358)</t>
-  </si>
-  <si>
-    <t>JSU(-0.8775652850562528, 1.3055596818488435, 1.2399005802453873, 3.622772399787213)</t>
-  </si>
-  <si>
-    <t>EXN(1.5343218420231182, 3.9596380457787124, 4.246107647011312)</t>
+    <t>JSU(-0.8703656764443379, 1.0320466954387313, 0.5465517152907997, 2.2207479399061842)</t>
+  </si>
+  <si>
+    <t>NIG(1.5800297202085303, 1.1741681119539105, 3.6198597448984797, 6.01648817107456)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8192558337956347, 1.2788509834542616, 1.4195791808988019, 3.5271215308500636)</t>
+  </si>
+  <si>
+    <t>EXN(1.7893037226222037, 3.408661499577847, 3.900033340598612)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Falcons/Distributions.xlsx
+++ b/Base/Teams/Falcons/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.8703656764443379, 1.0320466954387313, 0.5465517152907997, 2.2207479399061842)</t>
-  </si>
-  <si>
-    <t>NIG(1.5800297202085303, 1.1741681119539105, 3.6198597448984797, 6.01648817107456)</t>
-  </si>
-  <si>
-    <t>JSU(-0.8192558337956347, 1.2788509834542616, 1.4195791808988019, 3.5271215308500636)</t>
-  </si>
-  <si>
-    <t>EXN(1.7893037226222037, 3.408661499577847, 3.900033340598612)</t>
+    <t>JSU(-0.9720616611150132, 1.1218375607160074, 0.3137193930898504, 2.4882685308903847)</t>
+  </si>
+  <si>
+    <t>NIG(1.6758215367933418, 1.2554112403714965, 3.3855516397469554, 6.1141186501041265)</t>
+  </si>
+  <si>
+    <t>NIG(1.088024592827917, 0.6294513452024685, 1.9944303175573586, 3.71509910862388)</t>
+  </si>
+  <si>
+    <t>EXN(1.7136744594633821, 3.698164852340953, 3.98700188111587)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Falcons/Distributions.xlsx
+++ b/Base/Teams/Falcons/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.9720616611150132, 1.1218375607160074, 0.3137193930898504, 2.4882685308903847)</t>
-  </si>
-  <si>
-    <t>NIG(1.6758215367933418, 1.2554112403714965, 3.3855516397469554, 6.1141186501041265)</t>
-  </si>
-  <si>
-    <t>NIG(1.088024592827917, 0.6294513452024685, 1.9944303175573586, 3.71509910862388)</t>
-  </si>
-  <si>
-    <t>EXN(1.7136744594633821, 3.698164852340953, 3.98700188111587)</t>
+    <t>JSU(-0.9583413711159094, 1.1330459575302005, 0.3648926152760323, 2.4444050437356215)</t>
+  </si>
+  <si>
+    <t>NIG(1.6467694176796313, 1.2610425428217629, 3.354386461163098, 6.007340446084026)</t>
+  </si>
+  <si>
+    <t>NIG(1.0174743177162338, 0.6088201534404959, 2.0246964023033565, 3.466966625511703)</t>
+  </si>
+  <si>
+    <t>EXN(1.9199653738697875, 3.2805043469957873, 3.7557940208759586)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Falcons/Distributions.xlsx
+++ b/Base/Teams/Falcons/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.9583413711159094, 1.1330459575302005, 0.3648926152760323, 2.4444050437356215)</t>
-  </si>
-  <si>
-    <t>NIG(1.6467694176796313, 1.2610425428217629, 3.354386461163098, 6.007340446084026)</t>
-  </si>
-  <si>
-    <t>NIG(1.0174743177162338, 0.6088201534404959, 2.0246964023033565, 3.466966625511703)</t>
-  </si>
-  <si>
-    <t>EXN(1.9199653738697875, 3.2805043469957873, 3.7557940208759586)</t>
+    <t>JSU(-0.9478040347888075, 1.1600942729923163, 0.38058756717037434, 2.6196203984555417)</t>
+  </si>
+  <si>
+    <t>NIG(1.6378198977583236, 1.2613032702141227, 3.3501997243659543, 6.048688549293481)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8153266048216445, 1.2247826064387488, 1.4796470569435838, 3.2665743593335295)</t>
+  </si>
+  <si>
+    <t>EXN(1.8507580504911991, 3.440136965907115, 3.804158205796213)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Falcons/Distributions.xlsx
+++ b/Base/Teams/Falcons/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.9478040347888075, 1.1600942729923163, 0.38058756717037434, 2.6196203984555417)</t>
-  </si>
-  <si>
-    <t>NIG(1.6378198977583236, 1.2613032702141227, 3.3501997243659543, 6.048688549293481)</t>
-  </si>
-  <si>
-    <t>JSU(-0.8153266048216445, 1.2247826064387488, 1.4796470569435838, 3.2665743593335295)</t>
-  </si>
-  <si>
-    <t>EXN(1.8507580504911991, 3.440136965907115, 3.804158205796213)</t>
+    <t>JSU(-0.9277329896308137, 1.1445802505529814, 0.48324801229439407, 2.57378440550603)</t>
+  </si>
+  <si>
+    <t>NIG(1.6739832197994373, 1.2822168749098057, 3.1515433113175737, 6.2619643830078235)</t>
+  </si>
+  <si>
+    <t>NIG(1.0245737617126567, 0.6081987742658426, 2.0892113614187715, 3.540535309185457)</t>
+  </si>
+  <si>
+    <t>EXN(1.8865462401700384, 3.413986770425657, 3.7602501973453553)</t>
   </si>
 </sst>
 </file>
